--- a/src/test/resources/org/penguinframework/test/dao/expected_all_type_null.xlsx
+++ b/src/test/resources/org/penguinframework/test/dao/expected_all_type_null.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\penguinframework-test\src\test\resources\org\penguinframework\test\dao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21933148-79F2-4319-8B64-073449911154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A4FB58-E96C-458E-A165-04FE24187039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>int_type</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>uuid_type</t>
+  </si>
+  <si>
+    <t>12:13:14.987654321</t>
   </si>
 </sst>
 </file>
@@ -124,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -407,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,9 +480,17 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="C2" s="1"/>
       <c r="F2">
         <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="C3" s="1"/>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
